--- a/output/etiquetas_peq.xlsx
+++ b/output/etiquetas_peq.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="etiqueta_peq" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="etiqueta_grande" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -468,7 +469,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -498,7 +499,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -528,7 +529,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -558,7 +559,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -588,7 +589,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -618,7 +619,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -648,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -678,7 +679,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -708,7 +709,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -738,7 +739,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -768,7 +769,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -798,7 +799,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -822,6 +823,277 @@
       <c r="F13" t="inlineStr">
         <is>
           <t>SAL0000004528</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CLIENTE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DESTINO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PROVEEDOR</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>OC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>NRO. DE GUIA</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ASN</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CANT BULTOS</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PESO</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LPN</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>TIPO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>COMPAÑIA MINERA DOÑA INES DE COLLAHUASI</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BODEGA ROSARIO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>COMERCIAL, SERVICIOS E INGENIERIA CSI SPA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>01 DE 03</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SAL0000004491</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>BULTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>COMPAÑIA MINERA DOÑA INES DE COLLAHUASI</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BODEGA ROSARIO</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>COMERCIAL, SERVICIOS E INGENIERIA CSI SPA</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>02 DE 03</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>22</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SAL0000004493</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>BULTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>COMPAÑIA MINERA DOÑA INES DE COLLAHUASI</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BODEGA ROSARIO</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>COMERCIAL, SERVICIOS E INGENIERIA CSI SPA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>03 DE 03</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SAL0000004528</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>BULTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>COMPAÑIA MINERA DOÑA INES DE COLLAHUASI</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BODEGA ROSARIO</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>COMERCIAL, SERVICIOS E INGENIERIA CSI SPA</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>01 DE 01</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Pallet1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PALLET</t>
         </is>
       </c>
     </row>

--- a/output/etiquetas_peq.xlsx
+++ b/output/etiquetas_peq.xlsx
@@ -469,7 +469,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>B37675</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -499,7 +499,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>B37675</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -529,7 +529,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>B37675</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -559,7 +559,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>B37675</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -589,7 +589,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>B37675</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -619,7 +619,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>B37675</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>B37675</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -679,7 +679,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>B37675</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -709,7 +709,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>B37675</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -739,7 +739,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>B37675</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -769,7 +769,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>B37675</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -799,7 +799,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>B37675</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -837,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -915,30 +915,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>B37675</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>01 DE 03</t>
+          <t>01 DE 06</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>10.06</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>SAL0000004491</t>
+          <t>SAL0000004478</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -965,30 +965,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>B37675</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>02 DE 03</t>
+          <t>02 DE 06</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>22</v>
+        <v>6.88</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>SAL0000004493</t>
+          <t>SAL0000004491</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1015,30 +1015,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>B37675</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03 DE 03</t>
+          <t>03 DE 06</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>10.04</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>SAL0000004528</t>
+          <t>SAL0000004492</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1065,35 +1065,135 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>B37675</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>01 DE 01</t>
+          <t>04 DE 06</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>10.08</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Pallet1</t>
+          <t>SAL0000004493</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>PALLET</t>
+          <t>BULTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>COMPAÑIA MINERA DOÑA INES DE COLLAHUASI</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>BODEGA ROSARIO</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>COMERCIAL, SERVICIOS E INGENIERIA CSI SPA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>B37675</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>05 DE 06</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SAL0000004494</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>BULTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>COMPAÑIA MINERA DOÑA INES DE COLLAHUASI</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BODEGA ROSARIO</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>COMERCIAL, SERVICIOS E INGENIERIA CSI SPA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>B37675</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>06 DE 06</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>SAL0000004528</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>BULTO</t>
         </is>
       </c>
     </row>
